--- a/bulletin/macroeconomics/static/macroeconomics/tables/fair_social_policy.xlsx
+++ b/bulletin/macroeconomics/static/macroeconomics/tables/fair_social_policy.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D365C857-3377-4524-AEAC-CE693D39D6A3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,17 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="35">
   <si>
     <t>№</t>
   </si>
   <si>
-    <t xml:space="preserve">Стратегический </t>
-  </si>
-  <si>
-    <t>показатель</t>
-  </si>
-  <si>
     <t>ед. изм.</t>
   </si>
   <si>
@@ -128,13 +121,16 @@
   </si>
   <si>
     <t>Расходы домашних хозяйств на продовольственные товары</t>
+  </si>
+  <si>
+    <t>Стратегический  показатель</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,7 +221,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -260,7 +256,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -437,103 +433,100 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection sqref="A1:N97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
       <c r="D1">
         <v>2020</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:14">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>14</v>
       </c>
       <c r="D4">
         <v>0.5</v>
@@ -557,9 +550,9 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>5.0999999999999996</v>
@@ -583,9 +576,9 @@
         <v>44.3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>-2.8</v>
@@ -609,9 +602,9 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>-3.1</v>
@@ -635,9 +628,9 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>-3.1</v>
@@ -661,9 +654,9 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>-5</v>
@@ -687,9 +680,9 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>5.0999999999999996</v>
@@ -713,9 +706,9 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="B11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>2.1</v>
@@ -739,9 +732,9 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="B12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <v>3.6</v>
@@ -765,9 +758,9 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="B13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13">
         <v>2.5</v>
@@ -791,9 +784,9 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="B14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14">
         <v>-5.4</v>
@@ -817,9 +810,9 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15">
         <v>1.7</v>
@@ -843,9 +836,9 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14">
       <c r="B16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16">
         <v>4.5</v>
@@ -869,9 +862,9 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13">
       <c r="B17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17">
         <v>8.8000000000000007</v>
@@ -895,9 +888,9 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="B18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D18">
         <v>3.5</v>
@@ -921,9 +914,9 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="B19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19">
         <v>-7.6</v>
@@ -947,9 +940,9 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13">
       <c r="B20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20">
         <v>0.3</v>
@@ -973,9 +966,9 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="B21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21">
         <v>-3.4</v>
@@ -999,20 +992,20 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="B23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D23">
         <v>22.53</v>
@@ -1036,9 +1029,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="B24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D24">
         <v>22.75</v>
@@ -1062,9 +1055,9 @@
         <v>27.26</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="B25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D25">
         <v>24.39</v>
@@ -1088,9 +1081,9 @@
         <v>29.23</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="B26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D26">
         <v>22.58</v>
@@ -1114,9 +1107,9 @@
         <v>27.06</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="B27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D27">
         <v>27.43</v>
@@ -1140,9 +1133,9 @@
         <v>32.869999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13">
       <c r="B28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D28">
         <v>25</v>
@@ -1166,9 +1159,9 @@
         <v>29.96</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="B29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D29">
         <v>27.04</v>
@@ -1192,9 +1185,9 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="B30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D30">
         <v>21.66</v>
@@ -1218,9 +1211,9 @@
         <v>25.96</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="B31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D31">
         <v>24.49</v>
@@ -1244,9 +1237,9 @@
         <v>29.35</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="B32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D32">
         <v>24.83</v>
@@ -1270,9 +1263,9 @@
         <v>29.76</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13">
       <c r="B33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D33">
         <v>29.74</v>
@@ -1296,9 +1289,9 @@
         <v>35.64</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13">
       <c r="B34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D34">
         <v>21.71</v>
@@ -1322,9 +1315,9 @@
         <v>26.02</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13">
       <c r="B35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D35">
         <v>21.32</v>
@@ -1348,9 +1341,9 @@
         <v>25.55</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13">
       <c r="B36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D36">
         <v>29.15</v>
@@ -1374,9 +1367,9 @@
         <v>34.93</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13">
       <c r="B37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D37">
         <v>20.010000000000002</v>
@@ -1400,9 +1393,9 @@
         <v>23.98</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13">
       <c r="B38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D38">
         <v>26.43</v>
@@ -1426,9 +1419,9 @@
         <v>31.67</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13">
       <c r="B39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D39">
         <v>20.62</v>
@@ -1452,9 +1445,9 @@
         <v>24.71</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13">
       <c r="B40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D40">
         <v>28.2</v>
@@ -1478,20 +1471,20 @@
         <v>33.79</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="B42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D42">
         <v>4.8</v>
@@ -1515,9 +1508,9 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13">
       <c r="B43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D43">
         <v>4.7</v>
@@ -1541,9 +1534,9 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13">
       <c r="B44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D44">
         <v>4.8</v>
@@ -1567,9 +1560,9 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13">
       <c r="B45" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D45">
         <v>4.5999999999999996</v>
@@ -1593,9 +1586,9 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13">
       <c r="B46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D46">
         <v>4.8</v>
@@ -1619,9 +1612,9 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13">
       <c r="B47" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D47">
         <v>4.8</v>
@@ -1645,9 +1638,9 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13">
       <c r="B48" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D48">
         <v>4.8</v>
@@ -1671,9 +1664,9 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13">
       <c r="B49" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D49">
         <v>4.4000000000000004</v>
@@ -1697,9 +1690,9 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13">
       <c r="B50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D50">
         <v>4.7</v>
@@ -1723,9 +1716,9 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13">
       <c r="B51" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D51">
         <v>4.8</v>
@@ -1749,9 +1742,9 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13">
       <c r="B52" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D52">
         <v>4.8</v>
@@ -1775,9 +1768,9 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13">
       <c r="B53" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D53">
         <v>4.7</v>
@@ -1801,9 +1794,9 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13">
       <c r="B54" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D54">
         <v>4.8</v>
@@ -1827,9 +1820,9 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13">
       <c r="B55" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D55">
         <v>5.0999999999999996</v>
@@ -1853,9 +1846,9 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13">
       <c r="B56" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D56">
         <v>4.8</v>
@@ -1879,9 +1872,9 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13">
       <c r="B57" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D57">
         <v>4.4000000000000004</v>
@@ -1905,9 +1898,9 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13">
       <c r="B58" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D58">
         <v>5.0999999999999996</v>
@@ -1931,9 +1924,9 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13">
       <c r="B59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D59">
         <v>5.0999999999999996</v>
@@ -1957,17 +1950,17 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13">
       <c r="A60">
         <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="B61" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D61">
         <v>0.34</v>
@@ -1988,9 +1981,9 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13">
       <c r="B62" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D62">
         <v>0.4</v>
@@ -2014,9 +2007,9 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13">
       <c r="B63" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D63">
         <v>0.5</v>
@@ -2040,9 +2033,9 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13">
       <c r="B64" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D64">
         <v>0.54</v>
@@ -2066,9 +2059,9 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13">
       <c r="B65" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D65">
         <v>0.65</v>
@@ -2092,9 +2085,9 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13">
       <c r="B66" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D66">
         <v>0.56999999999999995</v>
@@ -2118,9 +2111,9 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13">
       <c r="B67" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D67">
         <v>0.5</v>
@@ -2144,9 +2137,9 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13">
       <c r="B68" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D68">
         <v>0.43</v>
@@ -2170,9 +2163,9 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13">
       <c r="B69" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D69">
         <v>0.39</v>
@@ -2196,9 +2189,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13">
       <c r="B70" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D70">
         <v>0.55000000000000004</v>
@@ -2222,9 +2215,9 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13">
       <c r="B71" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D71">
         <v>0.56999999999999995</v>
@@ -2248,9 +2241,9 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13">
       <c r="B72" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D72">
         <v>0.44</v>
@@ -2274,9 +2267,9 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13">
       <c r="B73" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D73">
         <v>0.63</v>
@@ -2300,9 +2293,9 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13">
       <c r="B74" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D74">
         <v>0.17</v>
@@ -2326,9 +2319,9 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13">
       <c r="B75" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D75">
         <v>0.45</v>
@@ -2352,9 +2345,9 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13">
       <c r="B76" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D76">
         <v>0.42</v>
@@ -2378,9 +2371,9 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13">
       <c r="B77" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D77">
         <v>0.42</v>
@@ -2404,9 +2397,9 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13">
       <c r="B78" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D78">
         <v>0.21</v>
@@ -2430,20 +2423,20 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13">
       <c r="A79">
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="B80" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D80">
         <v>56.4</v>
@@ -2467,9 +2460,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:13">
       <c r="B81" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D81">
         <v>55.4</v>
@@ -2493,9 +2486,9 @@
         <v>39.299999999999997</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:13">
       <c r="B82" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D82">
         <v>55.2</v>
@@ -2519,9 +2512,9 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:13">
       <c r="B83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D83">
         <v>62.4</v>
@@ -2545,9 +2538,9 @@
         <v>44.3</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:13">
       <c r="B84" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D84">
         <v>63.9</v>
@@ -2571,9 +2564,9 @@
         <v>45.3</v>
       </c>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:13">
       <c r="B85" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D85">
         <v>60.2</v>
@@ -2597,9 +2590,9 @@
         <v>42.7</v>
       </c>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:13">
       <c r="B86" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D86">
         <v>59.4</v>
@@ -2623,9 +2616,9 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:13">
       <c r="B87" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D87">
         <v>52</v>
@@ -2649,9 +2642,9 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:13">
       <c r="B88" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D88">
         <v>49.4</v>
@@ -2675,9 +2668,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:13">
       <c r="B89" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D89">
         <v>52.6</v>
@@ -2701,9 +2694,9 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:13">
       <c r="B90" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D90">
         <v>63.6</v>
@@ -2727,9 +2720,9 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:13">
       <c r="B91" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D91">
         <v>57</v>
@@ -2753,9 +2746,9 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:13">
       <c r="B92" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D92">
         <v>50.2</v>
@@ -2779,9 +2772,9 @@
         <v>42.4</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:13">
       <c r="B93" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D93">
         <v>67.099999999999994</v>
@@ -2805,9 +2798,9 @@
         <v>47.6</v>
       </c>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:13">
       <c r="B94" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D94">
         <v>58.5</v>
@@ -2831,9 +2824,9 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:13">
       <c r="B95" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D95">
         <v>47.5</v>
@@ -2857,9 +2850,9 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:13">
       <c r="B96" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D96">
         <v>53.3</v>
@@ -2883,9 +2876,9 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:13">
       <c r="B97" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D97">
         <v>52.8</v>
